--- a/biology/Botanique/Chlorophyceae/Chlorophyceae.xlsx
+++ b/biology/Botanique/Chlorophyceae/Chlorophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorophyceae (Chlorophycées) sont une classe d'algues vertes de la division des Chlorophyta. Le mot associe les racines grecques χλωρός [khlôros] (vert) et φύκος [phucos] (algue).
 Au fil de l'histoire de la phycologie, la composition de ce groupe s'est profondément modifiée et réduite. Dans son acception scientifique la plus récente, celle de 1994 de Christensen, les Chlorophyceae sont une classe de l'embranchement des Chlorophyta et comprennent essentiellement des algues vertes d'eau douce, majoritairement unicellulaires.
@@ -516,20 +528,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Chlorophyceae « au sens de » Kützing, 1845
-Le terme Chlorophyceae fut inventé par Friedrich Traugott Kützing et parut en 1845 dans son ouvrage Phycologia germanica[1].
-Kützing y répartit les algues en deux classes : les Isocarpeae, elles-mêmes composées des Diatomeae d'une part et des Chlorophyceae d'autre part, et les Heterocarpeae qui correspondent aux algues rouges. Il définit ainsi les Chlorophyceae : « des algues dont le thalle est formé de cellules mucilagineuses ou amylacées au contenu principalement de couleur verte »[1].
-La division des Chlorophyceae englobe alors toutes les algues vertes ainsi que les actuelles Cyanophycées et Phéophycées, mais l'emploi du terme dans ce sens ne perdure pas car, dès 1849, Kützing lui-même, dans Species algarum, renomme la « division des Chlorophyceae » en « sous-classe des Malacophyceae[2] ».
-Les Chlorophyceae « au sens de » Warming, 1884
-En 1884, dans son manuel de botanique (Haandbog i den systematiske Botanik), le botaniste danois Eugenius Warming redéfinit les Chlorophyceae comme l'une des six classes de la sous-lignée des algues[3]. Elles correspondent alors effectivement à l'ensemble des algues vertes.
-Pour ce taxon, au lieu de « Chlorophyceae Warming », l'auteur indiqué est parfois Nordal Wille (« Chlorophyceae Wille », ou plus précisément « Chlorophyceae Wille in Warming ») car Warming, dans son manuel, déclare avoir repris l'organisation des algues vertes proposée par Wille. Les trois appellations correspondent cependant bien à une seule et même référence.
-Cette définition des Chlorophyceae, simple à appréhender, est devenue assez populaire. Elle subsiste dans certains dictionnaires[4] et bases taxinomiques[5].
-À la fin du XXe siècle, avec les progrès des connaissances sur la phylogénie des algues, les Chlorophyceae ont été vidées d'un ensemble de familles qui se sont révélées plus proches des plantes terrestres que des autres algues vertes. Ces transfuges, comme les Characeae, les Zygnemataceae, … ont ainsi rejoint l'infra-règne des Streptophyta tandis que les Chlorophyceae restantes se sont retrouvées constituer la classe unique de l'infra-règne des Chlorophyta.
-Les Chlorophyceae « au sens de » Christensen, 1994
-Au sein des Chlorophyta, plusieurs classes furent finalement distinguées. Parfois certaines dissociations ne furent que temporaires, ce qui entraînait le risque que le terme « Chlorophyceae » disparaisse définitivement car une règle de nomenclature était désormais établie qu'un phylum devait tirer son nom d'un genre-type.
-Tyge Ahrengot Christensen proposa alors, en 1994, que les Chlorophyceae soient redéfinies comme une classe d'algues à chlorophylle b dont le type serait le genre Chlorococcum[6].
-En ce sens, la définition de Christensen ne rend pas compte d'un périmètre d'extension de la classe mais elle permet simplement de sauvegarder l'appellation. Ce sont en revanche les travaux de Stewart et Mattox en 1975 qui ont réduit ce périmètre à son expression actuelle[7].
-La classe des « Chlorophyceae T.A.Chr » constitue un groupe monophylétique parmi les Chlorophyta. Elle est actuellement composée principalement d'espèces d'eau douce[8] qui peuvent être unicellulaires, coloniales ou filamenteuses. C'est numériquement la classe d'algues vertes la plus importante, elle compte plus de 2 000 espèces différentes[9].
+          <t>Les Chlorophyceae « au sens de » Kützing, 1845</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme Chlorophyceae fut inventé par Friedrich Traugott Kützing et parut en 1845 dans son ouvrage Phycologia germanica.
+Kützing y répartit les algues en deux classes : les Isocarpeae, elles-mêmes composées des Diatomeae d'une part et des Chlorophyceae d'autre part, et les Heterocarpeae qui correspondent aux algues rouges. Il définit ainsi les Chlorophyceae : « des algues dont le thalle est formé de cellules mucilagineuses ou amylacées au contenu principalement de couleur verte ».
+La division des Chlorophyceae englobe alors toutes les algues vertes ainsi que les actuelles Cyanophycées et Phéophycées, mais l'emploi du terme dans ce sens ne perdure pas car, dès 1849, Kützing lui-même, dans Species algarum, renomme la « division des Chlorophyceae » en « sous-classe des Malacophyceae ».
 </t>
         </is>
       </c>
@@ -555,13 +562,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Évolution historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les Chlorophyceae « au sens de » Warming, 1884</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1884, dans son manuel de botanique (Haandbog i den systematiske Botanik), le botaniste danois Eugenius Warming redéfinit les Chlorophyceae comme l'une des six classes de la sous-lignée des algues. Elles correspondent alors effectivement à l'ensemble des algues vertes.
+Pour ce taxon, au lieu de « Chlorophyceae Warming », l'auteur indiqué est parfois Nordal Wille (« Chlorophyceae Wille », ou plus précisément « Chlorophyceae Wille in Warming ») car Warming, dans son manuel, déclare avoir repris l'organisation des algues vertes proposée par Wille. Les trois appellations correspondent cependant bien à une seule et même référence.
+Cette définition des Chlorophyceae, simple à appréhender, est devenue assez populaire. Elle subsiste dans certains dictionnaires et bases taxinomiques.
+À la fin du XXe siècle, avec les progrès des connaissances sur la phylogénie des algues, les Chlorophyceae ont été vidées d'un ensemble de familles qui se sont révélées plus proches des plantes terrestres que des autres algues vertes. Ces transfuges, comme les Characeae, les Zygnemataceae, … ont ainsi rejoint l'infra-règne des Streptophyta tandis que les Chlorophyceae restantes se sont retrouvées constituer la classe unique de l'infra-règne des Chlorophyta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évolution historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les Chlorophyceae « au sens de » Christensen, 1994</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein des Chlorophyta, plusieurs classes furent finalement distinguées. Parfois certaines dissociations ne furent que temporaires, ce qui entraînait le risque que le terme « Chlorophyceae » disparaisse définitivement car une règle de nomenclature était désormais établie qu'un phylum devait tirer son nom d'un genre-type.
+Tyge Ahrengot Christensen proposa alors, en 1994, que les Chlorophyceae soient redéfinies comme une classe d'algues à chlorophylle b dont le type serait le genre Chlorococcum.
+En ce sens, la définition de Christensen ne rend pas compte d'un périmètre d'extension de la classe mais elle permet simplement de sauvegarder l'appellation. Ce sont en revanche les travaux de Stewart et Mattox en 1975 qui ont réduit ce périmètre à son expression actuelle.
+La classe des « Chlorophyceae T.A.Chr » constitue un groupe monophylétique parmi les Chlorophyta. Elle est actuellement composée principalement d'espèces d'eau douce qui peuvent être unicellulaires, coloniales ou filamenteuses. C'est numériquement la classe d'algues vertes la plus importante, elle compte plus de 2 000 espèces différentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractérisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'observation macroscopique ou même microscopique classique ne fournit pas d'éléments permettant de caractériser de manière totalement discriminante les Chlorophyceae. Les caractères dérivés propres concernent la configuration du corpuscule basilaire (un élément à la base des flagelles des cellules mobiles) et le métabolisme de dégradation de l'urée qui est assurée par une urée-amydolyase (alors que chez les Streptophyta et les autres Chlorophyta, l'enzyme concernée est une uréase)[10].
-Quelques exemples d'espèces ou de genres de Chlorophyceae
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'observation macroscopique ou même microscopique classique ne fournit pas d'éléments permettant de caractériser de manière totalement discriminante les Chlorophyceae. Les caractères dérivés propres concernent la configuration du corpuscule basilaire (un élément à la base des flagelles des cellules mobiles) et le métabolisme de dégradation de l'urée qui est assurée par une urée-amydolyase (alors que chez les Streptophyta et les autres Chlorophyta, l'enzyme concernée est une uréase).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractérisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Quelques exemples d'espèces ou de genres de Chlorophyceae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Volvox carteri
 			Pediastrum duplex
 			Scenedesmus dimorphus (en)
@@ -570,40 +695,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chlorophyceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chlorophyceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1 mai 2013)[11] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1 mai 2013) :
 ordre des Chaetopeltidales (en) C.J.O'Kelly, S.Watanabe, &amp; G.L.Floyd
 ordre des Chaetophorales Wille
 ordre des Chlamydomonadales F.E.Fritsch
 ordre des Chlorophyceae incertae sedis
 ordre des Oedogoniales (en) Heering
 ordre des Sphaeropleales Luerssen
-Selon ITIS      (1 mai 2013)[12] :
+Selon ITIS      (1 mai 2013) :
 ordre des Chaetopeltidales
 ordre des Chaetophorales
 ordre des Chlorococcales
@@ -613,7 +740,7 @@
 ordre des Sphaeropleales
 ordre des Tetrasporales (en)
 ordre des Volvocales
-Selon NCBI  (1 mai 2013)[13] :
+Selon NCBI  (1 mai 2013) :
 ordre des Chaetopeltidales
 famille des Chaetopeltidaceae
 ordre des Chaetophorales
@@ -656,12 +783,12 @@
 non-classé Chlorophyceae incertae sedis
 famille des Microsporaceae
 famille des Treubariaceae
-Selon Paleobiology Database                   (1 mai 2013)[14] :
+Selon Paleobiology Database                   (1 mai 2013) :
 Anatoliporaceae
 Dascladales
 Paleosiphonocladales
 Receptaculitidae
-Selon World Register of Marine Species                               (1 mai 2013)[15] :
+Selon World Register of Marine Species                               (1 mai 2013) :
 ordre des Acrosiphoniales
 ordre des Caulerpales
 ordre des Chaetopeltidales
